--- a/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_ANL201_Viz_Biz\4_Assignments\TMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_ANL201_Viz_Biz\4_Assignments\TMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2044F91-2142-4516-A680-0F8483A67C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="7185"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -480,12 +486,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -796,17 +802,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -822,14 +828,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +966,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1064,31 +1069,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1702127659574468</c:v>
+                  <c:v>0.16326530612244897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10638297872340426</c:v>
+                  <c:v>0.12244897959183673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23404255319148937</c:v>
+                  <c:v>0.24489795918367346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10638297872340426</c:v>
+                  <c:v>0.10204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1702127659574468</c:v>
+                  <c:v>0.16326530612244897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10638297872340426</c:v>
+                  <c:v>0.10204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1276595744680851E-2</c:v>
+                  <c:v>4.0816326530612242E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1276595744680851E-2</c:v>
+                  <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5217391304347824E-2</c:v>
+                  <c:v>4.0816326530612242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,7 +2723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Down Arrow 1"/>
+        <xdr:cNvPr id="2" name="Down Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2772,7 +2783,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2835,7 +2852,13 @@
     <xdr:ext cx="7858126" cy="3192412"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2972,7 +2995,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,11 +3280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,7 +3336,7 @@
       </c>
       <c r="F3" s="12">
         <f>COUNTIF($B$2:$B$60,"&gt;=0")</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3329,7 +3352,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$60),"")</f>
-        <v>61.617021276595743</v>
+        <v>62.979591836734691</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3368,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$60),"")</f>
-        <v>14.61618101475414</v>
+        <v>11.511750873054261</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3458,7 +3481,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;80")-COUNTIF($B$2:$B$60,"&lt;75"))/$F$3,"")</f>
-        <v>0.1702127659574468</v>
+        <v>0.16326530612244897</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,7 +3506,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;75")-COUNTIF($B$2:$B$60,"&lt;70"))/$F$3,"")</f>
-        <v>0.10638297872340426</v>
+        <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3508,7 +3531,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;70")-COUNTIF($B$2:$B$60,"&lt;65"))/$F$3,"")</f>
-        <v>0.23404255319148937</v>
+        <v>0.24489795918367346</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,7 +3556,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;65")-COUNTIF($B$2:$B$60,"&lt;60"))/$F$3,"")</f>
-        <v>0.10638297872340426</v>
+        <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3558,7 +3581,7 @@
       </c>
       <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;60")-COUNTIF($B$2:$B$60,"&lt;55"))/$F$3,"")</f>
-        <v>0.1702127659574468</v>
+        <v>0.16326530612244897</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3583,7 +3606,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;55")-COUNTIF($B$2:$B$60,"&lt;50"))/$F$3,"")</f>
-        <v>0.10638297872340426</v>
+        <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,7 +3631,7 @@
       </c>
       <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;50")-COUNTIF($B$2:$B$60,"&lt;45"))/$F$3,"")</f>
-        <v>2.1276595744680851E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,7 +3656,7 @@
       </c>
       <c r="I17" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;45")-COUNTIF($B$2:$B$60,"&lt;40"))/$F$3,"")</f>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3658,7 +3681,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$60,"&lt;40")/COUNTIF($B$2:$B$60,"&gt;0"),"")</f>
-        <v>6.5217391304347824E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3676,7 +3699,7 @@
       </c>
       <c r="B20" s="8">
         <f>Sheet1!K21</f>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,12 +3955,22 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="6">
+        <v>49</v>
+      </c>
+      <c r="B49" s="8">
+        <f>Sheet1!K50</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="6">
+        <v>50</v>
+      </c>
+      <c r="B50" s="8">
+        <f>Sheet1!K51</f>
+        <v>69</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -3987,8 +4020,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B60">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B60" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -4000,12 +4033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="35">
-        <f t="shared" ref="K3:K52" si="0">SUM(D3:J3)</f>
+        <f t="shared" ref="K3:K51" si="0">SUM(D3:J3)</f>
         <v>76</v>
       </c>
     </row>
@@ -4741,9 +4774,30 @@
       <c r="C21" s="27" t="s">
         <v>79</v>
       </c>
+      <c r="D21" s="32">
+        <v>5</v>
+      </c>
+      <c r="E21" s="32">
+        <v>5</v>
+      </c>
+      <c r="F21" s="32">
+        <v>15</v>
+      </c>
+      <c r="G21" s="32">
+        <v>14</v>
+      </c>
+      <c r="H21" s="32">
+        <v>13</v>
+      </c>
+      <c r="I21" s="32">
+        <v>12</v>
+      </c>
+      <c r="J21" s="32">
+        <v>10</v>
+      </c>
       <c r="K21" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5824,12 +5878,6 @@
       <c r="K51" s="35">
         <f t="shared" si="0"/>
         <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5839,7 +5887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6510,8 +6558,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_ANL201_Viz_Biz\4_Assignments\TMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2044F91-2142-4516-A680-0F8483A67C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1ECA-D0C3-4D43-8DD8-59CA1D6529C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Alphabetical" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="148">
   <si>
     <t>Mark</t>
   </si>
@@ -493,7 +494,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +537,21 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -805,7 +821,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -892,19 +908,110 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1066,34 +1173,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.1632653061224483E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16326530612244897</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.10204081632653061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22448979591836735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16326530612244897</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.12244897959183673</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24489795918367346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10204081632653061</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16326530612244897</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10204081632653061</c:v>
+                  <c:v>6.1224489795918366E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0816326530612242E-2</c:v>
+                  <c:v>6.1224489795918366E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0816326530612242E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3425,7 @@
       </c>
       <c r="B2" s="8">
         <f>Sheet1!K3</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
@@ -3329,7 +3436,7 @@
       </c>
       <c r="B3" s="8">
         <f>Sheet1!K4</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
@@ -3345,14 +3452,14 @@
       </c>
       <c r="B4" s="8">
         <f>Sheet1!K5</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$60),"")</f>
-        <v>62.979591836734691</v>
+        <v>65.65306122448979</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3361,14 +3468,14 @@
       </c>
       <c r="B5" s="8">
         <f>Sheet1!K6</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$60),"")</f>
-        <v>11.511750873054261</v>
+        <v>9.9802952119166743</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3377,7 +3484,7 @@
       </c>
       <c r="B6" s="8">
         <f>Sheet1!K7</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3391,7 +3498,7 @@
       </c>
       <c r="B7" s="8">
         <f>Sheet1!K8</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3415,7 +3522,7 @@
       </c>
       <c r="B8" s="8">
         <f>Sheet1!K9</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3440,7 +3547,7 @@
       </c>
       <c r="B9" s="8">
         <f>Sheet1!K10</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3456,7 +3563,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;85")-COUNTIF($B$2:$B$60,"&lt;80"))/$F$3,"")</f>
-        <v>0</v>
+        <v>8.1632653061224483E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3465,7 +3572,7 @@
       </c>
       <c r="B10" s="8">
         <f>Sheet1!K11</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3490,7 +3597,7 @@
       </c>
       <c r="B11" s="8">
         <f>Sheet1!K12</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3506,7 +3613,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;75")-COUNTIF($B$2:$B$60,"&lt;70"))/$F$3,"")</f>
-        <v>0.12244897959183673</v>
+        <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3515,7 +3622,7 @@
       </c>
       <c r="B12" s="8">
         <f>Sheet1!K13</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3531,7 +3638,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;70")-COUNTIF($B$2:$B$60,"&lt;65"))/$F$3,"")</f>
-        <v>0.24489795918367346</v>
+        <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,7 +3647,7 @@
       </c>
       <c r="B13" s="8">
         <f>Sheet1!K14</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3556,7 +3663,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;65")-COUNTIF($B$2:$B$60,"&lt;60"))/$F$3,"")</f>
-        <v>0.10204081632653061</v>
+        <v>0.16326530612244897</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3565,7 +3672,7 @@
       </c>
       <c r="B14" s="8">
         <f>Sheet1!K15</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3581,7 +3688,7 @@
       </c>
       <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;60")-COUNTIF($B$2:$B$60,"&lt;55"))/$F$3,"")</f>
-        <v>0.16326530612244897</v>
+        <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3590,7 +3697,7 @@
       </c>
       <c r="B15" s="8">
         <f>Sheet1!K16</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3606,7 +3713,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;55")-COUNTIF($B$2:$B$60,"&lt;50"))/$F$3,"")</f>
-        <v>0.10204081632653061</v>
+        <v>6.1224489795918366E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,7 +3722,7 @@
       </c>
       <c r="B16" s="8">
         <f>Sheet1!K17</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3631,7 +3738,7 @@
       </c>
       <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$60,"&lt;50")-COUNTIF($B$2:$B$60,"&lt;45"))/$F$3,"")</f>
-        <v>4.0816326530612242E-2</v>
+        <v>6.1224489795918366E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3640,7 +3747,7 @@
       </c>
       <c r="B17" s="8">
         <f>Sheet1!K18</f>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3665,7 +3772,7 @@
       </c>
       <c r="B18" s="8">
         <f>Sheet1!K19</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3681,7 +3788,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$60,"&lt;40")/COUNTIF($B$2:$B$60,"&gt;0"),"")</f>
-        <v>4.0816326530612242E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,7 +3797,7 @@
       </c>
       <c r="B19" s="8">
         <f>Sheet1!K20</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3699,7 +3806,7 @@
       </c>
       <c r="B20" s="8">
         <f>Sheet1!K21</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,7 +3815,7 @@
       </c>
       <c r="B21" s="8">
         <f>Sheet1!K22</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,7 +3824,7 @@
       </c>
       <c r="B22" s="8">
         <f>Sheet1!K23</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3726,7 +3833,7 @@
       </c>
       <c r="B23" s="8">
         <f>Sheet1!K24</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3735,7 +3842,7 @@
       </c>
       <c r="B24" s="8">
         <f>Sheet1!K25</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,7 +3851,7 @@
       </c>
       <c r="B25" s="8">
         <f>Sheet1!K26</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,7 +3860,7 @@
       </c>
       <c r="B26" s="8">
         <f>Sheet1!K27</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3762,7 +3869,7 @@
       </c>
       <c r="B27" s="8">
         <f>Sheet1!K28</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,7 +3878,7 @@
       </c>
       <c r="B28" s="8">
         <f>Sheet1!K29</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,7 +3887,7 @@
       </c>
       <c r="B29" s="8">
         <f>Sheet1!K30</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3789,7 +3896,7 @@
       </c>
       <c r="B30" s="8">
         <f>Sheet1!K31</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,7 +3905,7 @@
       </c>
       <c r="B31" s="8">
         <f>Sheet1!K32</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3807,7 +3914,7 @@
       </c>
       <c r="B32" s="8">
         <f>Sheet1!K33</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3923,7 @@
       </c>
       <c r="B33" s="8">
         <f>Sheet1!K34</f>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3932,7 @@
       </c>
       <c r="B34" s="8">
         <f>Sheet1!K35</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3941,7 @@
       </c>
       <c r="B35" s="8">
         <f>Sheet1!K36</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3843,7 +3950,7 @@
       </c>
       <c r="B36" s="8">
         <f>Sheet1!K37</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3959,7 @@
       </c>
       <c r="B37" s="8">
         <f>Sheet1!K38</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +3968,7 @@
       </c>
       <c r="B38" s="8">
         <f>Sheet1!K39</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +3977,7 @@
       </c>
       <c r="B39" s="8">
         <f>Sheet1!K40</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3986,7 @@
       </c>
       <c r="B40" s="8">
         <f>Sheet1!K41</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3995,7 @@
       </c>
       <c r="B41" s="8">
         <f>Sheet1!K42</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +4004,7 @@
       </c>
       <c r="B42" s="8">
         <f>Sheet1!K43</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +4013,7 @@
       </c>
       <c r="B43" s="8">
         <f>Sheet1!K44</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +4022,7 @@
       </c>
       <c r="B44" s="8">
         <f>Sheet1!K45</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +4031,7 @@
       </c>
       <c r="B45" s="8">
         <f>Sheet1!K46</f>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +4040,7 @@
       </c>
       <c r="B46" s="8">
         <f>Sheet1!K47</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,7 +4049,7 @@
       </c>
       <c r="B47" s="8">
         <f>Sheet1!K48</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +4058,7 @@
       </c>
       <c r="B48" s="8">
         <f>Sheet1!K49</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +4067,7 @@
       </c>
       <c r="B49" s="8">
         <f>Sheet1!K50</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +4076,7 @@
       </c>
       <c r="B50" s="8">
         <f>Sheet1!K51</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4122,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>"or(""&lt;60"",""&gt;64"")"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4037,8 +4144,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,11 +4252,11 @@
         <v>16</v>
       </c>
       <c r="J3" s="32">
-        <v>10</v>
-      </c>
-      <c r="K3" s="35">
+        <v>12</v>
+      </c>
+      <c r="K3" s="38">
         <f t="shared" ref="K3:K51" si="0">SUM(D3:J3)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4181,11 +4288,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="32">
-        <v>3</v>
-      </c>
-      <c r="K4" s="35">
+        <v>5</v>
+      </c>
+      <c r="K4" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,11 +4324,11 @@
         <v>12</v>
       </c>
       <c r="J5" s="32">
-        <v>10</v>
-      </c>
-      <c r="K5" s="35">
+        <v>12</v>
+      </c>
+      <c r="K5" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4253,11 +4360,11 @@
         <v>8</v>
       </c>
       <c r="J6" s="32">
-        <v>9</v>
-      </c>
-      <c r="K6" s="35">
+        <v>11</v>
+      </c>
+      <c r="K6" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4289,11 +4396,11 @@
         <v>16</v>
       </c>
       <c r="J7" s="32">
-        <v>12</v>
-      </c>
-      <c r="K7" s="35">
+        <v>14</v>
+      </c>
+      <c r="K7" s="38">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4325,11 +4432,11 @@
         <v>12</v>
       </c>
       <c r="J8" s="32">
-        <v>8</v>
-      </c>
-      <c r="K8" s="35">
+        <v>10</v>
+      </c>
+      <c r="K8" s="38">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,11 +4468,11 @@
         <v>5</v>
       </c>
       <c r="J9" s="32">
-        <v>10</v>
-      </c>
-      <c r="K9" s="35">
+        <v>12</v>
+      </c>
+      <c r="K9" s="38">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4397,11 +4504,11 @@
         <v>18</v>
       </c>
       <c r="J10" s="32">
-        <v>8</v>
-      </c>
-      <c r="K10" s="35">
+        <v>10</v>
+      </c>
+      <c r="K10" s="38">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4433,11 +4540,11 @@
         <v>16</v>
       </c>
       <c r="J11" s="32">
-        <v>10</v>
-      </c>
-      <c r="K11" s="35">
+        <v>12</v>
+      </c>
+      <c r="K11" s="38">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4469,11 +4576,11 @@
         <v>11</v>
       </c>
       <c r="J12" s="32">
-        <v>9</v>
-      </c>
-      <c r="K12" s="35">
+        <v>11</v>
+      </c>
+      <c r="K12" s="38">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4505,11 +4612,11 @@
         <v>18</v>
       </c>
       <c r="J13" s="32">
-        <v>9</v>
-      </c>
-      <c r="K13" s="35">
+        <v>11</v>
+      </c>
+      <c r="K13" s="38">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4541,11 +4648,11 @@
         <v>5</v>
       </c>
       <c r="J14" s="32">
-        <v>9</v>
-      </c>
-      <c r="K14" s="35">
+        <v>11</v>
+      </c>
+      <c r="K14" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4577,11 +4684,11 @@
         <v>19</v>
       </c>
       <c r="J15" s="32">
-        <v>10</v>
-      </c>
-      <c r="K15" s="35">
+        <v>12</v>
+      </c>
+      <c r="K15" s="38">
         <f>SUM(D15:J15)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4613,11 +4720,11 @@
         <v>12</v>
       </c>
       <c r="J16" s="32">
-        <v>11</v>
-      </c>
-      <c r="K16" s="35">
+        <v>13</v>
+      </c>
+      <c r="K16" s="38">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4649,11 +4756,10 @@
         <v>10</v>
       </c>
       <c r="J17" s="32">
-        <v>10</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="K17" s="38">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4673,23 +4779,23 @@
         <v>5</v>
       </c>
       <c r="F18" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="32">
-        <v>5</v>
-      </c>
-      <c r="K18" s="35">
+        <v>12</v>
+      </c>
+      <c r="K18" s="38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,11 +4827,11 @@
         <v>15</v>
       </c>
       <c r="J19" s="32">
-        <v>12</v>
-      </c>
-      <c r="K19" s="35">
+        <v>14</v>
+      </c>
+      <c r="K19" s="38">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4757,11 +4863,11 @@
         <v>12</v>
       </c>
       <c r="J20" s="32">
-        <v>10</v>
-      </c>
-      <c r="K20" s="35">
+        <v>12</v>
+      </c>
+      <c r="K20" s="38">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4793,11 +4899,11 @@
         <v>12</v>
       </c>
       <c r="J21" s="32">
-        <v>10</v>
-      </c>
-      <c r="K21" s="35">
+        <v>12</v>
+      </c>
+      <c r="K21" s="38">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4829,11 +4935,11 @@
         <v>15</v>
       </c>
       <c r="J22" s="32">
-        <v>8</v>
-      </c>
-      <c r="K22" s="35">
+        <v>10</v>
+      </c>
+      <c r="K22" s="38">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4865,11 +4971,11 @@
         <v>14</v>
       </c>
       <c r="J23" s="32">
-        <v>11</v>
-      </c>
-      <c r="K23" s="35">
+        <v>13</v>
+      </c>
+      <c r="K23" s="38">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4901,11 +5007,11 @@
         <v>15</v>
       </c>
       <c r="J24" s="32">
-        <v>10</v>
-      </c>
-      <c r="K24" s="35">
+        <v>12</v>
+      </c>
+      <c r="K24" s="38">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4937,11 +5043,11 @@
         <v>16</v>
       </c>
       <c r="J25" s="32">
-        <v>11</v>
-      </c>
-      <c r="K25" s="35">
+        <v>13</v>
+      </c>
+      <c r="K25" s="38">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4973,11 +5079,11 @@
         <v>12</v>
       </c>
       <c r="J26" s="32">
-        <v>6</v>
-      </c>
-      <c r="K26" s="35">
+        <v>8</v>
+      </c>
+      <c r="K26" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5009,11 +5115,11 @@
         <v>17</v>
       </c>
       <c r="J27" s="32">
-        <v>10</v>
-      </c>
-      <c r="K27" s="35">
+        <v>12</v>
+      </c>
+      <c r="K27" s="38">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5045,11 +5151,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="32">
-        <v>12</v>
-      </c>
-      <c r="K28" s="35">
+        <v>14</v>
+      </c>
+      <c r="K28" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5081,11 +5187,11 @@
         <v>14</v>
       </c>
       <c r="J29" s="32">
-        <v>10</v>
-      </c>
-      <c r="K29" s="35">
+        <v>12</v>
+      </c>
+      <c r="K29" s="38">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5117,11 +5223,11 @@
         <v>19</v>
       </c>
       <c r="J30" s="32">
-        <v>10</v>
-      </c>
-      <c r="K30" s="35">
+        <v>12</v>
+      </c>
+      <c r="K30" s="38">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5153,11 +5259,11 @@
         <v>15</v>
       </c>
       <c r="J31" s="32">
-        <v>10</v>
-      </c>
-      <c r="K31" s="35">
+        <v>12</v>
+      </c>
+      <c r="K31" s="38">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5189,11 +5295,11 @@
         <v>12</v>
       </c>
       <c r="J32" s="32">
-        <v>10</v>
-      </c>
-      <c r="K32" s="35">
+        <v>12</v>
+      </c>
+      <c r="K32" s="38">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5225,11 +5331,11 @@
         <v>13</v>
       </c>
       <c r="J33" s="32">
-        <v>10</v>
-      </c>
-      <c r="K33" s="35">
+        <v>12</v>
+      </c>
+      <c r="K33" s="38">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5261,11 +5367,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="32">
-        <v>8</v>
-      </c>
-      <c r="K34" s="35">
+        <v>10</v>
+      </c>
+      <c r="K34" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5297,11 +5403,11 @@
         <v>14</v>
       </c>
       <c r="J35" s="32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K35" s="35">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5333,11 +5439,11 @@
         <v>18</v>
       </c>
       <c r="J36" s="32">
-        <v>10</v>
-      </c>
-      <c r="K36" s="35">
+        <v>12</v>
+      </c>
+      <c r="K36" s="38">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5369,11 +5475,11 @@
         <v>15</v>
       </c>
       <c r="J37" s="32">
-        <v>10</v>
-      </c>
-      <c r="K37" s="35">
+        <v>12</v>
+      </c>
+      <c r="K37" s="38">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5405,11 +5511,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="32">
-        <v>10</v>
-      </c>
-      <c r="K38" s="35">
+        <v>12</v>
+      </c>
+      <c r="K38" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,11 +5547,11 @@
         <v>16</v>
       </c>
       <c r="J39" s="32">
-        <v>9</v>
-      </c>
-      <c r="K39" s="35">
+        <v>11</v>
+      </c>
+      <c r="K39" s="38">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5477,11 +5583,11 @@
         <v>8</v>
       </c>
       <c r="J40" s="32">
-        <v>10</v>
-      </c>
-      <c r="K40" s="35">
+        <v>12</v>
+      </c>
+      <c r="K40" s="38">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5513,11 +5619,11 @@
         <v>15</v>
       </c>
       <c r="J41" s="32">
-        <v>9</v>
-      </c>
-      <c r="K41" s="35">
+        <v>11</v>
+      </c>
+      <c r="K41" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5549,11 +5655,11 @@
         <v>17</v>
       </c>
       <c r="J42" s="32">
-        <v>12</v>
-      </c>
-      <c r="K42" s="35">
+        <v>14</v>
+      </c>
+      <c r="K42" s="38">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5585,11 +5691,11 @@
         <v>12</v>
       </c>
       <c r="J43" s="32">
-        <v>10</v>
-      </c>
-      <c r="K43" s="35">
+        <v>12</v>
+      </c>
+      <c r="K43" s="38">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5621,11 +5727,11 @@
         <v>10</v>
       </c>
       <c r="J44" s="32">
-        <v>8</v>
-      </c>
-      <c r="K44" s="35">
+        <v>10</v>
+      </c>
+      <c r="K44" s="38">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5657,11 +5763,11 @@
         <v>11</v>
       </c>
       <c r="J45" s="32">
-        <v>9</v>
-      </c>
-      <c r="K45" s="35">
+        <v>11</v>
+      </c>
+      <c r="K45" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5678,26 +5784,26 @@
         <v>2</v>
       </c>
       <c r="E46" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="32">
         <v>12</v>
       </c>
       <c r="G46" s="32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H46" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" s="32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J46" s="32">
-        <v>10</v>
-      </c>
-      <c r="K46" s="35">
+        <v>12</v>
+      </c>
+      <c r="K46" s="38">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5729,11 +5835,11 @@
         <v>16</v>
       </c>
       <c r="J47" s="32">
-        <v>10</v>
-      </c>
-      <c r="K47" s="35">
+        <v>12</v>
+      </c>
+      <c r="K47" s="38">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -5765,11 +5871,11 @@
         <v>10</v>
       </c>
       <c r="J48" s="32">
-        <v>7</v>
-      </c>
-      <c r="K48" s="35">
+        <v>9</v>
+      </c>
+      <c r="K48" s="38">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5801,11 +5907,11 @@
         <v>12</v>
       </c>
       <c r="J49" s="32">
-        <v>10</v>
-      </c>
-      <c r="K49" s="35">
+        <v>12</v>
+      </c>
+      <c r="K49" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,11 +5943,11 @@
         <v>12</v>
       </c>
       <c r="J50" s="32">
-        <v>8</v>
-      </c>
-      <c r="K50" s="35">
+        <v>10</v>
+      </c>
+      <c r="K50" s="38">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5873,20 +5979,1896 @@
         <v>16</v>
       </c>
       <c r="J51" s="32">
-        <v>8</v>
-      </c>
-      <c r="K51" s="35">
+        <v>10</v>
+      </c>
+      <c r="K51" s="38">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K3:K51">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J51">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7143209D-6C2E-4AE4-B598-341704DF86F9}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:K50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="32"/>
+    <col min="11" max="11" width="9.140625" style="35"/>
+    <col min="12" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="42">
+        <v>42813</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="43">
+        <v>4</v>
+      </c>
+      <c r="E2" s="43">
+        <v>4</v>
+      </c>
+      <c r="F2" s="43">
+        <v>14</v>
+      </c>
+      <c r="G2" s="43">
+        <v>12</v>
+      </c>
+      <c r="H2" s="43">
+        <v>10</v>
+      </c>
+      <c r="I2" s="43">
+        <v>16</v>
+      </c>
+      <c r="J2" s="43">
+        <v>11</v>
+      </c>
+      <c r="K2" s="44">
+        <f>SUM(D2:J2)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="46">
+        <v>67694</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="43">
+        <v>5</v>
+      </c>
+      <c r="E3" s="43">
+        <v>5</v>
+      </c>
+      <c r="F3" s="43">
+        <v>12</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>9</v>
+      </c>
+      <c r="I3" s="43">
+        <v>11</v>
+      </c>
+      <c r="J3" s="43">
+        <v>11</v>
+      </c>
+      <c r="K3" s="44">
+        <f>SUM(D3:J3)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="48">
+        <v>65843</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="43">
+        <v>4</v>
+      </c>
+      <c r="E4" s="43">
+        <v>4</v>
+      </c>
+      <c r="F4" s="43">
+        <v>15</v>
+      </c>
+      <c r="G4" s="43">
+        <v>10</v>
+      </c>
+      <c r="H4" s="43">
+        <v>11</v>
+      </c>
+      <c r="I4" s="43">
+        <v>14</v>
+      </c>
+      <c r="J4" s="43">
+        <v>11</v>
+      </c>
+      <c r="K4" s="44">
+        <f>SUM(D4:J4)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="48">
+        <v>82613</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="43">
+        <v>5</v>
+      </c>
+      <c r="E5" s="43">
+        <v>5</v>
+      </c>
+      <c r="F5" s="43">
+        <v>12</v>
+      </c>
+      <c r="G5" s="43">
+        <v>5</v>
+      </c>
+      <c r="H5" s="43">
+        <v>9</v>
+      </c>
+      <c r="I5" s="43">
+        <v>10</v>
+      </c>
+      <c r="J5" s="43">
+        <v>10</v>
+      </c>
+      <c r="K5" s="44">
+        <f>SUM(D5:J5)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="50">
+        <v>67693</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="43">
+        <v>5</v>
+      </c>
+      <c r="E6" s="43">
+        <v>5</v>
+      </c>
+      <c r="F6" s="43">
+        <v>14</v>
+      </c>
+      <c r="G6" s="43">
+        <v>10</v>
+      </c>
+      <c r="H6" s="43">
+        <v>11</v>
+      </c>
+      <c r="I6" s="43">
+        <v>10</v>
+      </c>
+      <c r="J6" s="43">
+        <v>5</v>
+      </c>
+      <c r="K6" s="44">
+        <f>SUM(D6:J6)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="46">
+        <v>42471</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="43">
+        <v>4</v>
+      </c>
+      <c r="E7" s="43">
+        <v>4</v>
+      </c>
+      <c r="F7" s="43">
+        <v>10</v>
+      </c>
+      <c r="G7" s="43">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>10</v>
+      </c>
+      <c r="I7" s="43">
+        <v>12</v>
+      </c>
+      <c r="J7" s="43">
+        <v>8</v>
+      </c>
+      <c r="K7" s="44">
+        <f>SUM(D7:J7)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="48">
+        <v>86932</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="43">
+        <v>5</v>
+      </c>
+      <c r="E8" s="43">
+        <v>5</v>
+      </c>
+      <c r="F8" s="43">
+        <v>15</v>
+      </c>
+      <c r="G8" s="43">
+        <v>11</v>
+      </c>
+      <c r="H8" s="43">
+        <v>9</v>
+      </c>
+      <c r="I8" s="43">
+        <v>16</v>
+      </c>
+      <c r="J8" s="43">
+        <v>10</v>
+      </c>
+      <c r="K8" s="44">
+        <f>SUM(D8:J8)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="48">
+        <v>77163</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="43">
+        <v>5</v>
+      </c>
+      <c r="E9" s="43">
+        <v>5</v>
+      </c>
+      <c r="F9" s="43">
+        <v>10</v>
+      </c>
+      <c r="G9" s="43">
+        <v>10</v>
+      </c>
+      <c r="H9" s="43">
+        <v>8</v>
+      </c>
+      <c r="I9" s="43">
+        <v>10</v>
+      </c>
+      <c r="J9" s="43">
+        <v>12</v>
+      </c>
+      <c r="K9" s="44">
+        <f>SUM(D9:J9)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="50">
+        <v>76085</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="43">
+        <v>5</v>
+      </c>
+      <c r="E10" s="43">
+        <v>5</v>
+      </c>
+      <c r="F10" s="43">
+        <v>18</v>
+      </c>
+      <c r="G10" s="43">
+        <v>13</v>
+      </c>
+      <c r="H10" s="43">
+        <v>10</v>
+      </c>
+      <c r="I10" s="43">
+        <v>15</v>
+      </c>
+      <c r="J10" s="43">
+        <v>14</v>
+      </c>
+      <c r="K10" s="44">
+        <f>SUM(D10:J10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="46">
+        <v>49608</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="43">
+        <v>5</v>
+      </c>
+      <c r="E11" s="43">
+        <v>5</v>
+      </c>
+      <c r="F11" s="43">
+        <v>12</v>
+      </c>
+      <c r="G11" s="43">
+        <v>9</v>
+      </c>
+      <c r="H11" s="43">
+        <v>10</v>
+      </c>
+      <c r="I11" s="43">
+        <v>12</v>
+      </c>
+      <c r="J11" s="43">
+        <v>10</v>
+      </c>
+      <c r="K11" s="44">
+        <f>SUM(D11:J11)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="48">
+        <v>48817</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="43">
+        <v>4</v>
+      </c>
+      <c r="E12" s="43">
+        <v>4</v>
+      </c>
+      <c r="F12" s="43">
+        <v>12</v>
+      </c>
+      <c r="G12" s="43">
+        <v>12</v>
+      </c>
+      <c r="H12" s="43">
+        <v>10</v>
+      </c>
+      <c r="I12" s="43">
+        <v>12</v>
+      </c>
+      <c r="J12" s="43">
+        <v>12</v>
+      </c>
+      <c r="K12" s="44">
+        <f>SUM(D12:J12)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="48">
+        <v>54309</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="43">
+        <v>5</v>
+      </c>
+      <c r="E13" s="43">
+        <v>5</v>
+      </c>
+      <c r="F13" s="43">
+        <v>15</v>
+      </c>
+      <c r="G13" s="43">
+        <v>12</v>
+      </c>
+      <c r="H13" s="43">
+        <v>12</v>
+      </c>
+      <c r="I13" s="43">
+        <v>15</v>
+      </c>
+      <c r="J13" s="43">
+        <v>12</v>
+      </c>
+      <c r="K13" s="44">
+        <f>SUM(D13:J13)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="52">
+        <v>85658</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="43">
+        <v>4</v>
+      </c>
+      <c r="E14" s="43">
+        <v>4</v>
+      </c>
+      <c r="F14" s="43">
+        <v>14</v>
+      </c>
+      <c r="G14" s="43">
+        <v>14</v>
+      </c>
+      <c r="H14" s="43">
+        <v>11</v>
+      </c>
+      <c r="I14" s="43">
+        <v>5</v>
+      </c>
+      <c r="J14" s="43">
+        <v>12</v>
+      </c>
+      <c r="K14" s="44">
+        <f>SUM(D14:J14)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="46">
+        <v>53769</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="43">
+        <v>5</v>
+      </c>
+      <c r="E15" s="43">
+        <v>5</v>
+      </c>
+      <c r="F15" s="43">
+        <v>14</v>
+      </c>
+      <c r="G15" s="43">
+        <v>10</v>
+      </c>
+      <c r="H15" s="43">
+        <v>12</v>
+      </c>
+      <c r="I15" s="43">
+        <v>18</v>
+      </c>
+      <c r="J15" s="43">
+        <v>12</v>
+      </c>
+      <c r="K15" s="44">
+        <f>SUM(D15:J15)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="48">
+        <v>53890</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="43">
+        <v>5</v>
+      </c>
+      <c r="E16" s="43">
+        <v>5</v>
+      </c>
+      <c r="F16" s="43">
+        <v>14</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>10</v>
+      </c>
+      <c r="I16" s="43">
+        <v>12</v>
+      </c>
+      <c r="J16" s="43">
+        <v>12</v>
+      </c>
+      <c r="K16" s="44">
+        <f>SUM(D16:J16)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="50">
+        <v>54363</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="43">
+        <v>2</v>
+      </c>
+      <c r="E17" s="43">
+        <v>5</v>
+      </c>
+      <c r="F17" s="43">
+        <v>4</v>
+      </c>
+      <c r="G17" s="43">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>12</v>
+      </c>
+      <c r="I17" s="43">
+        <v>12</v>
+      </c>
+      <c r="J17" s="43">
+        <v>12</v>
+      </c>
+      <c r="K17" s="44">
+        <f>SUM(D17:J17)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="54">
+        <v>68299</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="43">
+        <v>5</v>
+      </c>
+      <c r="E18" s="43">
+        <v>5</v>
+      </c>
+      <c r="F18" s="43">
+        <v>14</v>
+      </c>
+      <c r="G18" s="43">
+        <v>12</v>
+      </c>
+      <c r="H18" s="43">
+        <v>10</v>
+      </c>
+      <c r="I18" s="43">
+        <v>11</v>
+      </c>
+      <c r="J18" s="43">
+        <v>11</v>
+      </c>
+      <c r="K18" s="44">
+        <f>SUM(D18:J18)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="48">
+        <v>43935</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="43">
+        <v>5</v>
+      </c>
+      <c r="E19" s="43">
+        <v>5</v>
+      </c>
+      <c r="F19" s="43">
+        <v>11</v>
+      </c>
+      <c r="G19" s="43">
+        <v>12</v>
+      </c>
+      <c r="H19" s="43">
+        <v>11</v>
+      </c>
+      <c r="I19" s="43">
+        <v>12</v>
+      </c>
+      <c r="J19" s="43">
+        <v>12</v>
+      </c>
+      <c r="K19" s="44">
+        <f>SUM(D19:J19)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="48">
+        <v>41438</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="43">
+        <v>2</v>
+      </c>
+      <c r="E20" s="43">
+        <v>3</v>
+      </c>
+      <c r="F20" s="43">
+        <v>15</v>
+      </c>
+      <c r="G20" s="43">
+        <v>13</v>
+      </c>
+      <c r="H20" s="43">
+        <v>11</v>
+      </c>
+      <c r="I20" s="43">
+        <v>12</v>
+      </c>
+      <c r="J20" s="43">
+        <v>13</v>
+      </c>
+      <c r="K20" s="44">
+        <f>SUM(D20:J20)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="52">
+        <v>65473</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="43">
+        <v>2</v>
+      </c>
+      <c r="E21" s="43">
+        <v>2</v>
+      </c>
+      <c r="F21" s="43">
+        <v>12</v>
+      </c>
+      <c r="G21" s="43">
+        <v>10</v>
+      </c>
+      <c r="H21" s="43">
+        <v>5</v>
+      </c>
+      <c r="I21" s="43">
+        <v>12</v>
+      </c>
+      <c r="J21" s="43">
+        <v>12</v>
+      </c>
+      <c r="K21" s="44">
+        <f>SUM(D21:J21)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="46">
+        <v>33977</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="43">
+        <v>5</v>
+      </c>
+      <c r="E22" s="43">
+        <v>5</v>
+      </c>
+      <c r="F22" s="43">
+        <v>13</v>
+      </c>
+      <c r="G22" s="43">
+        <v>9</v>
+      </c>
+      <c r="H22" s="43">
+        <v>10</v>
+      </c>
+      <c r="I22" s="43">
+        <v>10</v>
+      </c>
+      <c r="J22" s="43">
+        <v>9</v>
+      </c>
+      <c r="K22" s="44">
+        <f>SUM(D22:J22)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="48">
+        <v>65608</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>3</v>
+      </c>
+      <c r="F23" s="43">
+        <v>12</v>
+      </c>
+      <c r="G23" s="43">
+        <v>4</v>
+      </c>
+      <c r="H23" s="43">
+        <v>5</v>
+      </c>
+      <c r="I23" s="43">
+        <v>8</v>
+      </c>
+      <c r="J23" s="43">
+        <v>12</v>
+      </c>
+      <c r="K23" s="44">
+        <f>SUM(D23:J23)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="48">
+        <v>54033</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="43">
+        <v>4</v>
+      </c>
+      <c r="E24" s="43">
+        <v>4</v>
+      </c>
+      <c r="F24" s="43">
+        <v>17</v>
+      </c>
+      <c r="G24" s="43">
+        <v>14</v>
+      </c>
+      <c r="H24" s="43">
+        <v>13</v>
+      </c>
+      <c r="I24" s="43">
+        <v>17</v>
+      </c>
+      <c r="J24" s="43">
+        <v>12</v>
+      </c>
+      <c r="K24" s="44">
+        <f>SUM(D24:J24)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="50">
+        <v>42985</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="43">
+        <v>5</v>
+      </c>
+      <c r="E25" s="43">
+        <v>5</v>
+      </c>
+      <c r="F25" s="43">
+        <v>15</v>
+      </c>
+      <c r="G25" s="43">
+        <v>13</v>
+      </c>
+      <c r="H25" s="43">
+        <v>12</v>
+      </c>
+      <c r="I25" s="43">
+        <v>17</v>
+      </c>
+      <c r="J25" s="43">
+        <v>14</v>
+      </c>
+      <c r="K25" s="44">
+        <f>SUM(D25:J25)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="54">
+        <v>53508</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="43">
+        <v>4</v>
+      </c>
+      <c r="E26" s="43">
+        <v>4</v>
+      </c>
+      <c r="F26" s="43">
+        <v>16</v>
+      </c>
+      <c r="G26" s="43">
+        <v>10</v>
+      </c>
+      <c r="H26" s="43">
+        <v>10</v>
+      </c>
+      <c r="I26" s="43">
+        <v>18</v>
+      </c>
+      <c r="J26" s="43">
+        <v>10</v>
+      </c>
+      <c r="K26" s="44">
+        <f>SUM(D26:J26)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="48">
+        <v>74621</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="43">
+        <v>4</v>
+      </c>
+      <c r="E27" s="43">
+        <v>4</v>
+      </c>
+      <c r="F27" s="43">
+        <v>6</v>
+      </c>
+      <c r="G27" s="43">
+        <v>10</v>
+      </c>
+      <c r="H27" s="43">
+        <v>5</v>
+      </c>
+      <c r="I27" s="43">
+        <v>15</v>
+      </c>
+      <c r="J27" s="43">
+        <v>11</v>
+      </c>
+      <c r="K27" s="44">
+        <f>SUM(D27:J27)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="48">
+        <v>53884</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="43">
+        <v>5</v>
+      </c>
+      <c r="E28" s="43">
+        <v>5</v>
+      </c>
+      <c r="F28" s="43">
+        <v>12</v>
+      </c>
+      <c r="G28" s="43">
+        <v>14</v>
+      </c>
+      <c r="H28" s="43">
+        <v>5</v>
+      </c>
+      <c r="I28" s="43">
+        <v>16</v>
+      </c>
+      <c r="J28" s="43">
+        <v>14</v>
+      </c>
+      <c r="K28" s="44">
+        <f>SUM(D28:J28)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="50">
+        <v>67818</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="43">
+        <v>5</v>
+      </c>
+      <c r="E29" s="43">
+        <v>5</v>
+      </c>
+      <c r="F29" s="43">
+        <v>14</v>
+      </c>
+      <c r="G29" s="43">
+        <v>14</v>
+      </c>
+      <c r="H29" s="43">
+        <v>11</v>
+      </c>
+      <c r="I29" s="43">
+        <v>18</v>
+      </c>
+      <c r="J29" s="43">
+        <v>11</v>
+      </c>
+      <c r="K29" s="44">
+        <f>SUM(D29:J29)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="46">
+        <v>76631</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="43">
+        <v>5</v>
+      </c>
+      <c r="E30" s="43">
+        <v>5</v>
+      </c>
+      <c r="F30" s="43">
+        <v>14</v>
+      </c>
+      <c r="G30" s="43">
+        <v>8</v>
+      </c>
+      <c r="H30" s="43">
+        <v>5</v>
+      </c>
+      <c r="I30" s="43">
+        <v>5</v>
+      </c>
+      <c r="J30" s="43">
+        <v>11</v>
+      </c>
+      <c r="K30" s="44">
+        <f>SUM(D30:J30)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="48">
+        <v>84824</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="43">
+        <v>5</v>
+      </c>
+      <c r="E31" s="43">
+        <v>5</v>
+      </c>
+      <c r="F31" s="43">
+        <v>10</v>
+      </c>
+      <c r="G31" s="43">
+        <v>2</v>
+      </c>
+      <c r="H31" s="43">
+        <v>10</v>
+      </c>
+      <c r="I31" s="43">
+        <v>2</v>
+      </c>
+      <c r="J31" s="43">
+        <v>12</v>
+      </c>
+      <c r="K31" s="44">
+        <f>SUM(D31:J31)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="48">
+        <v>67750</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="43">
+        <v>5</v>
+      </c>
+      <c r="E32" s="43">
+        <v>5</v>
+      </c>
+      <c r="F32" s="43">
+        <v>15</v>
+      </c>
+      <c r="G32" s="43">
+        <v>14</v>
+      </c>
+      <c r="H32" s="43">
+        <v>8</v>
+      </c>
+      <c r="I32" s="43">
+        <v>16</v>
+      </c>
+      <c r="J32" s="43">
+        <v>12</v>
+      </c>
+      <c r="K32" s="44">
+        <f>SUM(D32:J32)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="50">
+        <v>62029</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="43">
+        <v>5</v>
+      </c>
+      <c r="E33" s="43">
+        <v>5</v>
+      </c>
+      <c r="F33" s="43">
+        <v>5</v>
+      </c>
+      <c r="G33" s="43">
+        <v>8</v>
+      </c>
+      <c r="H33" s="43">
+        <v>5</v>
+      </c>
+      <c r="I33" s="43">
+        <v>10</v>
+      </c>
+      <c r="J33" s="43">
+        <v>10</v>
+      </c>
+      <c r="K33" s="44">
+        <f>SUM(D33:J33)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="46">
+        <v>42510</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="43">
+        <v>5</v>
+      </c>
+      <c r="E34" s="43">
+        <v>5</v>
+      </c>
+      <c r="F34" s="43">
+        <v>12</v>
+      </c>
+      <c r="G34" s="43">
+        <v>10</v>
+      </c>
+      <c r="H34" s="43">
+        <v>8</v>
+      </c>
+      <c r="I34" s="43">
+        <v>10</v>
+      </c>
+      <c r="J34" s="43">
+        <v>12</v>
+      </c>
+      <c r="K34" s="44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="48">
+        <v>68079</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="43">
+        <v>4</v>
+      </c>
+      <c r="E35" s="43">
+        <v>5</v>
+      </c>
+      <c r="F35" s="43">
+        <v>10</v>
+      </c>
+      <c r="G35" s="43">
+        <v>10</v>
+      </c>
+      <c r="H35" s="43">
+        <v>10</v>
+      </c>
+      <c r="I35" s="43">
+        <v>0</v>
+      </c>
+      <c r="J35" s="43">
+        <v>14</v>
+      </c>
+      <c r="K35" s="44">
+        <f>SUM(D35:J35)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="48">
+        <v>68397</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="43">
+        <v>0</v>
+      </c>
+      <c r="E36" s="43">
+        <v>0</v>
+      </c>
+      <c r="F36" s="43">
+        <v>13</v>
+      </c>
+      <c r="G36" s="43">
+        <v>10</v>
+      </c>
+      <c r="H36" s="43">
+        <v>10</v>
+      </c>
+      <c r="I36" s="43">
+        <v>16</v>
+      </c>
+      <c r="J36" s="43">
+        <v>12</v>
+      </c>
+      <c r="K36" s="44">
+        <f>SUM(D36:J36)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="50">
+        <v>86070</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="43">
+        <v>4</v>
+      </c>
+      <c r="E37" s="43">
+        <v>4</v>
+      </c>
+      <c r="F37" s="43">
+        <v>15</v>
+      </c>
+      <c r="G37" s="43">
+        <v>10</v>
+      </c>
+      <c r="H37" s="43">
+        <v>10</v>
+      </c>
+      <c r="I37" s="43">
+        <v>16</v>
+      </c>
+      <c r="J37" s="43">
+        <v>13</v>
+      </c>
+      <c r="K37" s="44">
+        <f>SUM(D37:J37)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="46">
+        <v>86324</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="43">
+        <v>5</v>
+      </c>
+      <c r="E38" s="43">
+        <v>5</v>
+      </c>
+      <c r="F38" s="43">
+        <v>10</v>
+      </c>
+      <c r="G38" s="43">
+        <v>10</v>
+      </c>
+      <c r="H38" s="43">
+        <v>11</v>
+      </c>
+      <c r="I38" s="43">
+        <v>15</v>
+      </c>
+      <c r="J38" s="43">
+        <v>10</v>
+      </c>
+      <c r="K38" s="44">
+        <f>SUM(D38:J38)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="48">
+        <v>77411</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="43">
+        <v>5</v>
+      </c>
+      <c r="E39" s="43">
+        <v>5</v>
+      </c>
+      <c r="F39" s="43">
+        <v>18</v>
+      </c>
+      <c r="G39" s="43">
+        <v>13</v>
+      </c>
+      <c r="H39" s="43">
+        <v>10</v>
+      </c>
+      <c r="I39" s="43">
+        <v>15</v>
+      </c>
+      <c r="J39" s="43">
+        <v>12</v>
+      </c>
+      <c r="K39" s="44">
+        <f>SUM(D39:J39)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="48">
+        <v>54763</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="43">
+        <v>5</v>
+      </c>
+      <c r="E40" s="43">
+        <v>5</v>
+      </c>
+      <c r="F40" s="43">
+        <v>12</v>
+      </c>
+      <c r="G40" s="43">
+        <v>10</v>
+      </c>
+      <c r="H40" s="43">
+        <v>10</v>
+      </c>
+      <c r="I40" s="43">
+        <v>14</v>
+      </c>
+      <c r="J40" s="43">
+        <v>12</v>
+      </c>
+      <c r="K40" s="44">
+        <f>SUM(D40:J40)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="50">
+        <v>41781</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="43">
+        <v>5</v>
+      </c>
+      <c r="E41" s="43">
+        <v>5</v>
+      </c>
+      <c r="F41" s="43">
+        <v>17</v>
+      </c>
+      <c r="G41" s="43">
+        <v>11</v>
+      </c>
+      <c r="H41" s="43">
+        <v>12</v>
+      </c>
+      <c r="I41" s="43">
+        <v>19</v>
+      </c>
+      <c r="J41" s="43">
+        <v>12</v>
+      </c>
+      <c r="K41" s="44">
+        <f>SUM(D41:J41)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="46">
+        <v>59797</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="43">
+        <v>4</v>
+      </c>
+      <c r="E42" s="43">
+        <v>4</v>
+      </c>
+      <c r="F42" s="43">
+        <v>14</v>
+      </c>
+      <c r="G42" s="43">
+        <v>14</v>
+      </c>
+      <c r="H42" s="43">
+        <v>12</v>
+      </c>
+      <c r="I42" s="43">
+        <v>19</v>
+      </c>
+      <c r="J42" s="43">
+        <v>12</v>
+      </c>
+      <c r="K42" s="44">
+        <f>SUM(D42:J42)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="48">
+        <v>82275</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="43">
+        <v>12</v>
+      </c>
+      <c r="G43" s="43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="43">
+        <v>10</v>
+      </c>
+      <c r="I43" s="43">
+        <v>8</v>
+      </c>
+      <c r="J43" s="43">
+        <v>11</v>
+      </c>
+      <c r="K43" s="44">
+        <f>SUM(D43:J43)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="50">
+        <v>53821</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="43">
+        <v>4</v>
+      </c>
+      <c r="E44" s="43">
+        <v>4</v>
+      </c>
+      <c r="F44" s="43">
+        <v>16</v>
+      </c>
+      <c r="G44" s="43">
+        <v>14</v>
+      </c>
+      <c r="H44" s="43">
+        <v>12</v>
+      </c>
+      <c r="I44" s="43">
+        <v>16</v>
+      </c>
+      <c r="J44" s="43">
+        <v>12</v>
+      </c>
+      <c r="K44" s="44">
+        <f>SUM(D44:J44)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="46">
+        <v>74675</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="43">
+        <v>4</v>
+      </c>
+      <c r="E45" s="43">
+        <v>4</v>
+      </c>
+      <c r="F45" s="43">
+        <v>12</v>
+      </c>
+      <c r="G45" s="43">
+        <v>11</v>
+      </c>
+      <c r="H45" s="43">
+        <v>12</v>
+      </c>
+      <c r="I45" s="43">
+        <v>12</v>
+      </c>
+      <c r="J45" s="43">
+        <v>12</v>
+      </c>
+      <c r="K45" s="44">
+        <f>SUM(D45:J45)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="48">
+        <v>49138</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="43">
+        <v>0</v>
+      </c>
+      <c r="E46" s="43">
+        <v>0</v>
+      </c>
+      <c r="F46" s="43">
+        <v>12</v>
+      </c>
+      <c r="G46" s="43">
+        <v>10</v>
+      </c>
+      <c r="H46" s="43">
+        <v>5</v>
+      </c>
+      <c r="I46" s="43">
+        <v>12</v>
+      </c>
+      <c r="J46" s="43">
+        <v>10</v>
+      </c>
+      <c r="K46" s="44">
+        <f>SUM(D46:J46)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="50">
+        <v>75048</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="43">
+        <v>5</v>
+      </c>
+      <c r="E47" s="43">
+        <v>5</v>
+      </c>
+      <c r="F47" s="43">
+        <v>15</v>
+      </c>
+      <c r="G47" s="43">
+        <v>10</v>
+      </c>
+      <c r="H47" s="43">
+        <v>8</v>
+      </c>
+      <c r="I47" s="43">
+        <v>13</v>
+      </c>
+      <c r="J47" s="43">
+        <v>12</v>
+      </c>
+      <c r="K47" s="44">
+        <f>SUM(D47:J47)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="46">
+        <v>55271</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="43">
+        <v>4</v>
+      </c>
+      <c r="E48" s="43">
+        <v>4</v>
+      </c>
+      <c r="F48" s="43">
+        <v>14</v>
+      </c>
+      <c r="G48" s="43">
+        <v>8</v>
+      </c>
+      <c r="H48" s="43">
+        <v>10</v>
+      </c>
+      <c r="I48" s="43">
+        <v>14</v>
+      </c>
+      <c r="J48" s="43">
+        <v>13</v>
+      </c>
+      <c r="K48" s="44">
+        <f>SUM(D48:J48)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="48">
+        <v>4961</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="43">
+        <v>5</v>
+      </c>
+      <c r="E49" s="43">
+        <v>5</v>
+      </c>
+      <c r="F49" s="43">
+        <v>15</v>
+      </c>
+      <c r="G49" s="43">
+        <v>14</v>
+      </c>
+      <c r="H49" s="43">
+        <v>13</v>
+      </c>
+      <c r="I49" s="43">
+        <v>12</v>
+      </c>
+      <c r="J49" s="43">
+        <v>12</v>
+      </c>
+      <c r="K49" s="44">
+        <f>SUM(D49:J49)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="48">
+        <v>41771</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="43">
+        <v>5</v>
+      </c>
+      <c r="E50" s="43">
+        <v>5</v>
+      </c>
+      <c r="F50" s="43">
+        <v>10</v>
+      </c>
+      <c r="G50" s="43">
+        <v>11</v>
+      </c>
+      <c r="H50" s="43">
+        <v>11</v>
+      </c>
+      <c r="I50" s="43">
+        <v>15</v>
+      </c>
+      <c r="J50" s="43">
+        <v>12</v>
+      </c>
+      <c r="K50" s="44">
+        <f>SUM(D50:J50)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="36">
+        <v>5</v>
+      </c>
+      <c r="E51" s="36">
+        <v>5</v>
+      </c>
+      <c r="F51" s="36">
+        <v>20</v>
+      </c>
+      <c r="G51" s="36">
+        <v>16</v>
+      </c>
+      <c r="H51" s="36">
+        <v>15</v>
+      </c>
+      <c r="I51" s="36">
+        <v>24</v>
+      </c>
+      <c r="J51" s="36">
+        <v>15</v>
+      </c>
+      <c r="K51" s="37">
+        <f>SUM(D51:J51)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <conditionalFormatting sqref="K3:K51">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J51">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
@@ -6553,7 +8535,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>"or(""&lt;60"",""&gt;64"")"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2022_ANL201_Viz_Biz/4_Assignments/TMA/Mark Input Sheet ANL 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4003,9 +4003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
